--- a/output/5Y_P10_KFSDIV.xlsx
+++ b/output/5Y_P10_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3595</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-39</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.0875</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-38</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.1692</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0872</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-36</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0976</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.8505</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-34</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.8576</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-33</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5699</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-32</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5994</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-31</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.6663</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.701</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-29</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8109</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-28</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.9322</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-27</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5846</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-26</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2867</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-25</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.0645</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-24</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8083</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-23</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5636</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-22</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.1788</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.5668</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.962</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2659</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-18</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.4103</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-17</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.3976</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-16</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.9013</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-15</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.3527</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-14</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8804</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-13</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6268</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-12</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3636</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-11</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8711</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1252</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1934</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-8</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1176</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-7</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3311</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-6</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3637</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-5</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6447</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-4</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.486</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-3</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.1958</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-2</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.4264</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>17.107</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.8894</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.4004</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.3877</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>14.6367</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.0061</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.835</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>14.4216</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.2404</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.382</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.9583</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.2036</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.9136</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.4338</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.9657</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.3568</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.2487</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.3991</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.5985</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.6955</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.3398</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.8469</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3595</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-39</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.0875</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-38</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.1692</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0872</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-36</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0976</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.8505</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-34</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.8576</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-33</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5699</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-32</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5994</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-31</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.6663</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.701</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-29</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8109</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-28</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.9322</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-27</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5846</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-26</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2867</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-25</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.0645</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-24</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8083</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-23</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5636</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-22</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.1788</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.5668</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.962</v>
@@ -5462,10 +5465,10 @@
         <v>247869.9562</v>
       </c>
       <c r="K22" s="1">
-        <v>166529.5766</v>
+        <v>166569.7277</v>
       </c>
       <c r="L22" s="1">
-        <v>12.1048</v>
+        <v>12.1077</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2659</v>
@@ -5515,10 +5518,10 @@
         <v>238476.7441</v>
       </c>
       <c r="K23" s="1">
-        <v>184906.9342</v>
+        <v>184947.0853</v>
       </c>
       <c r="L23" s="1">
-        <v>12.2691</v>
+        <v>12.2718</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-18</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.4103</v>
@@ -5568,10 +5571,10 @@
         <v>250924.0484</v>
       </c>
       <c r="K24" s="1">
-        <v>220559.9484</v>
+        <v>220600.0995</v>
       </c>
       <c r="L24" s="1">
-        <v>12.2726</v>
+        <v>12.2748</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-17</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.3976</v>
@@ -5621,10 +5624,10 @@
         <v>260658.4725</v>
       </c>
       <c r="K25" s="1">
-        <v>227999.9475</v>
+        <v>228040.0986</v>
       </c>
       <c r="L25" s="1">
-        <v>12.2778</v>
+        <v>12.28</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-16</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.9013</v>
@@ -5674,10 +5677,10 @@
         <v>288725.0519</v>
       </c>
       <c r="K26" s="1">
-        <v>238276.8212</v>
+        <v>238316.9723</v>
       </c>
       <c r="L26" s="1">
-        <v>12.284</v>
+        <v>12.286</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-15</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.3527</v>
@@ -5727,10 +5730,10 @@
         <v>307471.2855</v>
       </c>
       <c r="K27" s="1">
-        <v>238526.7539</v>
+        <v>238566.905</v>
       </c>
       <c r="L27" s="1">
-        <v>12.2846</v>
+        <v>12.2867</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-14</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8804</v>
@@ -5780,10 +5783,10 @@
         <v>327740.6069</v>
       </c>
       <c r="K28" s="1">
-        <v>239784.5502</v>
+        <v>239824.7013</v>
       </c>
       <c r="L28" s="1">
-        <v>12.2899</v>
+        <v>12.2919</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-13</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6268</v>
@@ -5833,10 +5836,10 @@
         <v>361041.1756</v>
       </c>
       <c r="K29" s="1">
-        <v>239509.0982</v>
+        <v>239550.3505</v>
       </c>
       <c r="L29" s="1">
-        <v>12.2882</v>
+        <v>12.2904</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-12</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3636</v>
@@ -5886,10 +5889,10 @@
         <v>385145.1379</v>
       </c>
       <c r="K30" s="1">
-        <v>234970.2415</v>
+        <v>235029.6107</v>
       </c>
       <c r="L30" s="1">
-        <v>12.25</v>
+        <v>12.2531</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-11</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8711</v>
@@ -5939,10 +5942,10 @@
         <v>366973.3635</v>
       </c>
       <c r="K31" s="1">
-        <v>230849.8183</v>
+        <v>230925.6484</v>
       </c>
       <c r="L31" s="1">
-        <v>12.2055</v>
+        <v>12.2095</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1252</v>
@@ -5992,10 +5995,10 @@
         <v>390827.1976</v>
       </c>
       <c r="K32" s="1">
-        <v>269174.6283</v>
+        <v>269250.4584</v>
       </c>
       <c r="L32" s="1">
-        <v>12.421</v>
+        <v>12.4245</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1934</v>
@@ -6045,10 +6048,10 @@
         <v>402304.4985</v>
       </c>
       <c r="K33" s="1">
-        <v>273696.9214</v>
+        <v>273772.7515</v>
       </c>
       <c r="L33" s="1">
-        <v>12.4461</v>
+        <v>12.4496</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-8</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1176</v>
@@ -6098,10 +6101,10 @@
         <v>410562.5243</v>
       </c>
       <c r="K34" s="1">
-        <v>282235.6704</v>
+        <v>282311.5005</v>
       </c>
       <c r="L34" s="1">
-        <v>12.4933</v>
+        <v>12.4967</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-7</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3311</v>
@@ -6151,10 +6154,10 @@
         <v>459045.3528</v>
       </c>
       <c r="K35" s="1">
-        <v>293990.4917</v>
+        <v>294066.3218</v>
       </c>
       <c r="L35" s="1">
-        <v>12.552</v>
+        <v>12.5552</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-6</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3637</v>
@@ -6204,10 +6207,10 @@
         <v>469769.7783</v>
       </c>
       <c r="K36" s="1">
-        <v>275552.9217</v>
+        <v>275702.4454</v>
       </c>
       <c r="L36" s="1">
-        <v>12.4002</v>
+        <v>12.4069</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-5</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6447</v>
@@ -6257,10 +6260,10 @@
         <v>463352.2183</v>
       </c>
       <c r="K37" s="1">
-        <v>284865.7001</v>
+        <v>285015.2238</v>
       </c>
       <c r="L37" s="1">
-        <v>12.4796</v>
+        <v>12.4861</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-4</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.486</v>
@@ -6310,10 +6313,10 @@
         <v>514471.0238</v>
       </c>
       <c r="K38" s="1">
-        <v>311351.8274</v>
+        <v>311501.3512</v>
       </c>
       <c r="L38" s="1">
-        <v>12.6404</v>
+        <v>12.6464</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-3</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.1958</v>
@@ -6363,10 +6366,10 @@
         <v>541430.4544</v>
       </c>
       <c r="K39" s="1">
-        <v>300628.3285</v>
+        <v>300820.6993</v>
       </c>
       <c r="L39" s="1">
-        <v>12.5573</v>
+        <v>12.5654</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-2</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.4264</v>
@@ -6416,10 +6419,10 @@
         <v>556842.4346</v>
       </c>
       <c r="K40" s="1">
-        <v>293640.9972</v>
+        <v>293861.2686</v>
       </c>
       <c r="L40" s="1">
-        <v>12.4901</v>
+        <v>12.4995</v>
       </c>
       <c r="M40" s="1">
         <v>0.75</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>17.107</v>
@@ -6469,10 +6472,10 @@
         <v>598851.2462000001</v>
       </c>
       <c r="K41" s="1">
-        <v>298247.4042</v>
+        <v>298467.6757</v>
       </c>
       <c r="L41" s="1">
-        <v>12.5368</v>
+        <v>12.5461</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.8894</v>
@@ -6522,10 +6525,10 @@
         <v>603762.45</v>
       </c>
       <c r="K42" s="1">
-        <v>292064.684</v>
+        <v>292309.6628</v>
       </c>
       <c r="L42" s="1">
-        <v>12.4659</v>
+        <v>12.4764</v>
       </c>
       <c r="M42" s="1">
         <v>1</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.4004</v>
@@ -6575,10 +6578,10 @@
         <v>622917.8689999999</v>
       </c>
       <c r="K43" s="1">
-        <v>307213.9944</v>
+        <v>307458.9732</v>
       </c>
       <c r="L43" s="1">
-        <v>12.6299</v>
+        <v>12.64</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.3877</v>
@@ -6628,10 +6631,10 @@
         <v>606895.0633</v>
       </c>
       <c r="K44" s="1">
-        <v>329172.0211</v>
+        <v>329416.9999</v>
       </c>
       <c r="L44" s="1">
-        <v>12.828</v>
+        <v>12.8375</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>14.6367</v>
@@ -6681,10 +6684,10 @@
         <v>595764.5879</v>
       </c>
       <c r="K45" s="1">
-        <v>365251.1825</v>
+        <v>365496.1614</v>
       </c>
       <c r="L45" s="1">
-        <v>13.0445</v>
+        <v>13.0532</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.0061</v>
@@ -6734,10 +6737,10 @@
         <v>556623.2076</v>
       </c>
       <c r="K46" s="1">
-        <v>396361.8212</v>
+        <v>396606.8001</v>
       </c>
       <c r="L46" s="1">
-        <v>13.1587</v>
+        <v>13.1668</v>
       </c>
       <c r="M46" s="1">
         <v>0.5</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.835</v>
@@ -6787,10 +6790,10 @@
         <v>608618.8415</v>
       </c>
       <c r="K47" s="1">
-        <v>455615.7796</v>
+        <v>455860.7585</v>
       </c>
       <c r="L47" s="1">
-        <v>13.1421</v>
+        <v>13.1492</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>14.4216</v>
@@ -6840,10 +6843,10 @@
         <v>638125.1896</v>
       </c>
       <c r="K48" s="1">
-        <v>436863.0924</v>
+        <v>437183.0133</v>
       </c>
       <c r="L48" s="1">
-        <v>13.1128</v>
+        <v>13.1224</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.2404</v>
@@ -6893,10 +6896,10 @@
         <v>609627.9547999999</v>
       </c>
       <c r="K49" s="1">
-        <v>427318.6339</v>
+        <v>427676.6652</v>
       </c>
       <c r="L49" s="1">
-        <v>13.0858</v>
+        <v>13.0967</v>
       </c>
       <c r="M49" s="1">
         <v>0.4</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.382</v>
@@ -6946,10 +6949,10 @@
         <v>600069.3568</v>
       </c>
       <c r="K50" s="1">
-        <v>476010.3875</v>
+        <v>476368.4189</v>
       </c>
       <c r="L50" s="1">
-        <v>13.1041</v>
+        <v>13.1139</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.9583</v>
@@ -6999,10 +7002,10 @@
         <v>593139.0207</v>
       </c>
       <c r="K51" s="1">
-        <v>517295.3941</v>
+        <v>517653.4254</v>
       </c>
       <c r="L51" s="1">
-        <v>13.0456</v>
+        <v>13.0546</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.2036</v>
@@ -7052,10 +7055,10 @@
         <v>613287.6618</v>
       </c>
       <c r="K52" s="1">
-        <v>544168.1061</v>
+        <v>544526.1374</v>
       </c>
       <c r="L52" s="1">
-        <v>12.9886</v>
+        <v>12.9972</v>
       </c>
       <c r="M52" s="1">
         <v>0.4</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.9136</v>
@@ -7105,10 +7108,10 @@
         <v>668042.5048</v>
       </c>
       <c r="K53" s="1">
-        <v>543911.0114</v>
+        <v>544270.0709</v>
       </c>
       <c r="L53" s="1">
-        <v>12.989</v>
+        <v>12.9976</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.4338</v>
@@ -7158,10 +7161,10 @@
         <v>698987.2743</v>
       </c>
       <c r="K54" s="1">
-        <v>524159.7025</v>
+        <v>524597.6786</v>
       </c>
       <c r="L54" s="1">
-        <v>12.9909</v>
+        <v>13.0017</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.9657</v>
@@ -7211,10 +7214,10 @@
         <v>690521.9318</v>
       </c>
       <c r="K55" s="1">
-        <v>513171.0132</v>
+        <v>513652.9092</v>
       </c>
       <c r="L55" s="1">
-        <v>12.9812</v>
+        <v>12.9934</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.3568</v>
@@ -7264,10 +7267,10 @@
         <v>727369.2561</v>
       </c>
       <c r="K56" s="1">
-        <v>541750.5268</v>
+        <v>542232.4227</v>
       </c>
       <c r="L56" s="1">
-        <v>12.9817</v>
+        <v>12.9933</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.2487</v>
@@ -7317,10 +7320,10 @@
         <v>732917.3014999999</v>
       </c>
       <c r="K57" s="1">
-        <v>535437.4035</v>
+        <v>535944.5357</v>
       </c>
       <c r="L57" s="1">
-        <v>12.9772</v>
+        <v>12.9894</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.3991</v>
@@ -7370,10 +7373,10 @@
         <v>749216.5593</v>
       </c>
       <c r="K58" s="1">
-        <v>549947.2875</v>
+        <v>550454.4197</v>
       </c>
       <c r="L58" s="1">
-        <v>12.9848</v>
+        <v>12.9968</v>
       </c>
       <c r="M58" s="1">
         <v>0.4</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.5985</v>
@@ -7423,10 +7426,10 @@
         <v>782931.5023000001</v>
       </c>
       <c r="K59" s="1">
-        <v>553604.7017</v>
+        <v>554111.834</v>
       </c>
       <c r="L59" s="1">
-        <v>12.9877</v>
+        <v>12.9996</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.6955</v>
@@ -7476,10 +7479,10 @@
         <v>797062.3848</v>
       </c>
       <c r="K60" s="1">
-        <v>555128.3247</v>
+        <v>555635.4570000001</v>
       </c>
       <c r="L60" s="1">
-        <v>12.9893</v>
+        <v>13.0012</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.3398</v>
@@ -7529,10 +7532,10 @@
         <v>791714.8753</v>
       </c>
       <c r="K61" s="1">
-        <v>561014.8661</v>
+        <v>561521.9983</v>
       </c>
       <c r="L61" s="1">
-        <v>12.9966</v>
+        <v>13.0084</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.8469</v>
@@ -7582,10 +7585,10 @@
         <v>791099.0321</v>
       </c>
       <c r="K62" s="1">
-        <v>586440.4455</v>
+        <v>586947.5777</v>
       </c>
       <c r="L62" s="1">
-        <v>13.0122</v>
+        <v>13.0235</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3595</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-39</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.0875</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-38</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.1692</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0872</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-36</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0976</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.8505</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-34</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.8576</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-33</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5699</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-32</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5994</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-31</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.6663</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.701</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-29</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8109</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-28</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.9322</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-27</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5846</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-26</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2867</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-25</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.0645</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-24</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8083</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-23</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5636</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-22</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.1788</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.5668</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.962</v>
@@ -8774,10 +8777,10 @@
         <v>249087.53</v>
       </c>
       <c r="K22" s="1">
-        <v>175333.3243</v>
+        <v>175373.2051</v>
       </c>
       <c r="L22" s="1">
-        <v>12.1499</v>
+        <v>12.1527</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2659</v>
@@ -8827,10 +8830,10 @@
         <v>238674.709</v>
       </c>
       <c r="K23" s="1">
-        <v>195172.0019</v>
+        <v>195211.8827</v>
       </c>
       <c r="L23" s="1">
-        <v>12.3145</v>
+        <v>12.3171</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-18</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.4103</v>
@@ -8880,10 +8883,10 @@
         <v>251252.9053</v>
       </c>
       <c r="K24" s="1">
-        <v>233255.7727</v>
+        <v>233295.6535</v>
       </c>
       <c r="L24" s="1">
-        <v>12.3106</v>
+        <v>12.3127</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-17</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.3976</v>
@@ -8933,10 +8936,10 @@
         <v>260969.8032</v>
       </c>
       <c r="K25" s="1">
-        <v>241718.98</v>
+        <v>241758.8608</v>
       </c>
       <c r="L25" s="1">
-        <v>12.3149</v>
+        <v>12.317</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-16</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.9013</v>
@@ -8986,10 +8989,10 @@
         <v>290089.3578</v>
       </c>
       <c r="K26" s="1">
-        <v>253229.7373</v>
+        <v>253269.6181</v>
       </c>
       <c r="L26" s="1">
-        <v>12.3198</v>
+        <v>12.3217</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-15</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.3527</v>
@@ -9039,10 +9042,10 @@
         <v>309378.3392</v>
       </c>
       <c r="K27" s="1">
-        <v>254172.2421</v>
+        <v>254212.1229</v>
       </c>
       <c r="L27" s="1">
-        <v>12.3219</v>
+        <v>12.3239</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-14</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8804</v>
@@ -9092,10 +9095,10 @@
         <v>330313.1072</v>
       </c>
       <c r="K28" s="1">
-        <v>256215.6178</v>
+        <v>256255.4986</v>
       </c>
       <c r="L28" s="1">
-        <v>12.3297</v>
+        <v>12.3316</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-13</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6268</v>
@@ -9145,10 +9148,10 @@
         <v>365167.6198</v>
       </c>
       <c r="K29" s="1">
-        <v>256659.0473</v>
+        <v>256698.9281</v>
       </c>
       <c r="L29" s="1">
-        <v>12.3321</v>
+        <v>12.334</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-12</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3636</v>
@@ -9198,10 +9201,10 @@
         <v>390266.1744</v>
       </c>
       <c r="K30" s="1">
-        <v>252579.1585</v>
+        <v>252635.3242</v>
       </c>
       <c r="L30" s="1">
-        <v>12.3006</v>
+        <v>12.3033</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-11</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8711</v>
@@ -9251,10 +9254,10 @@
         <v>370030.677</v>
       </c>
       <c r="K31" s="1">
-        <v>248964.8912</v>
+        <v>249035.4958</v>
       </c>
       <c r="L31" s="1">
-        <v>12.2648</v>
+        <v>12.2683</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1252</v>
@@ -9304,10 +9307,10 @@
         <v>394911.1604</v>
       </c>
       <c r="K32" s="1">
-        <v>290924.1568</v>
+        <v>290994.7613</v>
       </c>
       <c r="L32" s="1">
-        <v>12.4764</v>
+        <v>12.4794</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1934</v>
@@ -9357,10 +9360,10 @@
         <v>406501.4336</v>
       </c>
       <c r="K33" s="1">
-        <v>296647.5646</v>
+        <v>296718.1692</v>
       </c>
       <c r="L33" s="1">
-        <v>12.505</v>
+        <v>12.508</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-8</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1176</v>
@@ -9410,10 +9413,10 @@
         <v>414614.002</v>
       </c>
       <c r="K34" s="1">
-        <v>306746.8499</v>
+        <v>306817.4545</v>
       </c>
       <c r="L34" s="1">
-        <v>12.5549</v>
+        <v>12.5578</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-7</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3311</v>
@@ -9463,10 +9466,10 @@
         <v>466308.9265</v>
       </c>
       <c r="K35" s="1">
-        <v>320378.8248</v>
+        <v>320449.4294</v>
       </c>
       <c r="L35" s="1">
-        <v>12.6152</v>
+        <v>12.618</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-6</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3637</v>
@@ -9516,10 +9519,10 @@
         <v>477096.4319</v>
       </c>
       <c r="K36" s="1">
-        <v>301337.0488</v>
+        <v>301483.7619</v>
       </c>
       <c r="L36" s="1">
-        <v>12.4743</v>
+        <v>12.4804</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-5</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6447</v>
@@ -9569,10 +9572,10 @@
         <v>469199.6436</v>
       </c>
       <c r="K37" s="1">
-        <v>312441.9354</v>
+        <v>312588.6486</v>
       </c>
       <c r="L37" s="1">
-        <v>12.559</v>
+        <v>12.5649</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-4</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.486</v>
@@ -9622,10 +9625,10 @@
         <v>524067.6075</v>
       </c>
       <c r="K38" s="1">
-        <v>342320.9499</v>
+        <v>342467.6631</v>
       </c>
       <c r="L38" s="1">
-        <v>12.719</v>
+        <v>12.7244</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-3</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.1958</v>
@@ -9675,10 +9678,10 @@
         <v>552646.3362</v>
       </c>
       <c r="K39" s="1">
-        <v>331647.9908</v>
+        <v>331837.349</v>
       </c>
       <c r="L39" s="1">
-        <v>12.6456</v>
+        <v>12.6528</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-2</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.4264</v>
@@ -9728,10 +9731,10 @@
         <v>568590.321</v>
       </c>
       <c r="K40" s="1">
-        <v>325069.6337</v>
+        <v>325285.2596</v>
       </c>
       <c r="L40" s="1">
-        <v>12.5894</v>
+        <v>12.5977</v>
       </c>
       <c r="M40" s="1">
         <v>0.75</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>17.107</v>
@@ -9781,10 +9784,10 @@
         <v>613786.9466</v>
       </c>
       <c r="K41" s="1">
-        <v>331237.0395</v>
+        <v>331452.6654</v>
       </c>
       <c r="L41" s="1">
-        <v>12.6447</v>
+        <v>12.653</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.8894</v>
@@ -9834,10 +9837,10 @@
         <v>618169.0622</v>
       </c>
       <c r="K42" s="1">
-        <v>325569.501</v>
+        <v>325807.7756</v>
       </c>
       <c r="L42" s="1">
-        <v>12.5872</v>
+        <v>12.5965</v>
       </c>
       <c r="M42" s="1">
         <v>1</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.4004</v>
@@ -9887,10 +9890,10 @@
         <v>638237.8734</v>
       </c>
       <c r="K43" s="1">
-        <v>343466.8189</v>
+        <v>343705.0934</v>
       </c>
       <c r="L43" s="1">
-        <v>12.7576</v>
+        <v>12.7664</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.3877</v>
@@ -9940,10 +9943,10 @@
         <v>619356.3299</v>
       </c>
       <c r="K44" s="1">
-        <v>368976.0104</v>
+        <v>369214.2849</v>
       </c>
       <c r="L44" s="1">
-        <v>12.9579</v>
+        <v>12.9663</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>14.6367</v>
@@ -9993,10 +9996,10 @@
         <v>605843.1232</v>
       </c>
       <c r="K45" s="1">
-        <v>410250.7966</v>
+        <v>410489.0711</v>
       </c>
       <c r="L45" s="1">
-        <v>13.1694</v>
+        <v>13.177</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.0061</v>
@@ -10046,10 +10049,10 @@
         <v>561024.7976</v>
       </c>
       <c r="K46" s="1">
-        <v>446134.459</v>
+        <v>446372.7335</v>
       </c>
       <c r="L46" s="1">
-        <v>13.2784</v>
+        <v>13.2855</v>
       </c>
       <c r="M46" s="1">
         <v>0.5</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.835</v>
@@ -10099,10 +10102,10 @@
         <v>617945.4539</v>
       </c>
       <c r="K47" s="1">
-        <v>513532.7894</v>
+        <v>513771.064</v>
       </c>
       <c r="L47" s="1">
-        <v>13.2455</v>
+        <v>13.2517</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>14.4216</v>
@@ -10152,10 +10155,10 @@
         <v>649816.2193999999</v>
       </c>
       <c r="K48" s="1">
-        <v>493899.7919</v>
+        <v>494216.5265</v>
       </c>
       <c r="L48" s="1">
-        <v>13.2221</v>
+        <v>13.2306</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.2404</v>
@@ -10205,10 +10208,10 @@
         <v>616540.6883</v>
       </c>
       <c r="K49" s="1">
-        <v>484570.5646</v>
+        <v>484924.5502</v>
       </c>
       <c r="L49" s="1">
-        <v>13.2005</v>
+        <v>13.2102</v>
       </c>
       <c r="M49" s="1">
         <v>0.4</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.382</v>
@@ -10258,10 +10261,10 @@
         <v>604458.0524</v>
       </c>
       <c r="K50" s="1">
-        <v>540712.0588</v>
+        <v>541066.0444</v>
       </c>
       <c r="L50" s="1">
-        <v>13.2074</v>
+        <v>13.216</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.9583</v>
@@ -10311,10 +10314,10 @@
         <v>595322.0779</v>
       </c>
       <c r="K51" s="1">
-        <v>588682.1048</v>
+        <v>589036.0905</v>
       </c>
       <c r="L51" s="1">
-        <v>13.1383</v>
+        <v>13.1462</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.2036</v>
@@ -10364,10 +10367,10 @@
         <v>616813.927</v>
       </c>
       <c r="K52" s="1">
-        <v>620522.0024999999</v>
+        <v>620875.9881</v>
       </c>
       <c r="L52" s="1">
-        <v>13.0736</v>
+        <v>13.0811</v>
       </c>
       <c r="M52" s="1">
         <v>0.4</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.9136</v>
@@ -10417,10 +10420,10 @@
         <v>677599.4232</v>
       </c>
       <c r="K53" s="1">
-        <v>621740.0002</v>
+        <v>622093.9858</v>
       </c>
       <c r="L53" s="1">
-        <v>13.0718</v>
+        <v>13.0793</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.4338</v>
@@ -10470,10 +10473,10 @@
         <v>711451.5002</v>
       </c>
       <c r="K54" s="1">
-        <v>600849.5421</v>
+        <v>601286.9959</v>
       </c>
       <c r="L54" s="1">
-        <v>13.0765</v>
+        <v>13.086</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.9657</v>
@@ -10523,10 +10526,10 @@
         <v>700368.2178</v>
       </c>
       <c r="K55" s="1">
-        <v>589914.6618999999</v>
+        <v>590395.8205</v>
       </c>
       <c r="L55" s="1">
-        <v>13.0696</v>
+        <v>13.0802</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.3568</v>
@@ -10576,10 +10579,10 @@
         <v>741063.8955</v>
       </c>
       <c r="K56" s="1">
-        <v>624160.4575</v>
+        <v>624641.616</v>
       </c>
       <c r="L56" s="1">
-        <v>13.0653</v>
+        <v>13.0753</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.2487</v>
@@ -10629,10 +10632,10 @@
         <v>745954.2031</v>
       </c>
       <c r="K57" s="1">
-        <v>618583.3817</v>
+        <v>619086.8342</v>
       </c>
       <c r="L57" s="1">
-        <v>13.0625</v>
+        <v>13.0731</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.3991</v>
@@ -10682,10 +10685,10 @@
         <v>763196.451</v>
       </c>
       <c r="K58" s="1">
-        <v>636922.5804</v>
+        <v>637426.0329</v>
       </c>
       <c r="L58" s="1">
-        <v>13.0685</v>
+        <v>13.0788</v>
       </c>
       <c r="M58" s="1">
         <v>0.4</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.5985</v>
@@ -10735,10 +10738,10 @@
         <v>800504.8133</v>
       </c>
       <c r="K59" s="1">
-        <v>642852.8605</v>
+        <v>643356.3131</v>
       </c>
       <c r="L59" s="1">
-        <v>13.0717</v>
+        <v>13.0819</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.6955</v>
@@ -10788,10 +10791,10 @@
         <v>815276.2785</v>
       </c>
       <c r="K60" s="1">
-        <v>646368.4594000001</v>
+        <v>646871.9118999999</v>
       </c>
       <c r="L60" s="1">
-        <v>13.0746</v>
+        <v>13.0848</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.3398</v>
@@ -10841,10 +10844,10 @@
         <v>807469.224</v>
       </c>
       <c r="K61" s="1">
-        <v>654971.9362</v>
+        <v>655475.3888</v>
       </c>
       <c r="L61" s="1">
-        <v>13.0827</v>
+        <v>13.0928</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.8469</v>
@@ -10894,10 +10897,10 @@
         <v>805082.3369</v>
       </c>
       <c r="K62" s="1">
-        <v>686291.151</v>
+        <v>686794.6035</v>
       </c>
       <c r="L62" s="1">
-        <v>13.0954</v>
+        <v>13.105</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3595</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-39</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.0875</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-38</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.1692</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0872</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-36</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0976</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.8505</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-34</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.8576</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-33</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5699</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-32</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5994</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-31</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.6663</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.701</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-29</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8109</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-28</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.9322</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-27</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5846</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-26</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2867</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-25</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.0645</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-24</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8083</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-23</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5636</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-22</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.1788</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.5668</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.962</v>
@@ -12086,10 +12089,10 @@
         <v>250354.8983</v>
       </c>
       <c r="K22" s="1">
-        <v>184694.8752</v>
+        <v>184734.3296</v>
       </c>
       <c r="L22" s="1">
-        <v>12.1942</v>
+        <v>12.1968</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2659</v>
@@ -12139,10 +12142,10 @@
         <v>238854.3026</v>
       </c>
       <c r="K23" s="1">
-        <v>206124.6128</v>
+        <v>206164.0672</v>
       </c>
       <c r="L23" s="1">
-        <v>12.3591</v>
+        <v>12.3615</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-18</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.4103</v>
@@ -12192,10 +12195,10 @@
         <v>251572.3187</v>
       </c>
       <c r="K24" s="1">
-        <v>246841.9277</v>
+        <v>246881.3821</v>
       </c>
       <c r="L24" s="1">
-        <v>12.3478</v>
+        <v>12.3497</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-17</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.3976</v>
@@ -12245,10 +12248,10 @@
         <v>261270.2377</v>
       </c>
       <c r="K25" s="1">
-        <v>256446.7943</v>
+        <v>256486.2487</v>
       </c>
       <c r="L25" s="1">
-        <v>12.351</v>
+        <v>12.3529</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-16</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.9013</v>
@@ -12298,10 +12301,10 @@
         <v>291521.4074</v>
       </c>
       <c r="K26" s="1">
-        <v>269333.5717</v>
+        <v>269373.0261</v>
       </c>
       <c r="L26" s="1">
-        <v>12.3544</v>
+        <v>12.3562</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-15</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.3527</v>
@@ -12351,10 +12354,10 @@
         <v>311396.4219</v>
       </c>
       <c r="K27" s="1">
-        <v>271078.7285</v>
+        <v>271118.1829</v>
       </c>
       <c r="L27" s="1">
-        <v>12.3579</v>
+        <v>12.3597</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-14</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8804</v>
@@ -12404,10 +12407,10 @@
         <v>333052.1747</v>
       </c>
       <c r="K28" s="1">
-        <v>274032.867</v>
+        <v>274072.3214</v>
       </c>
       <c r="L28" s="1">
-        <v>12.3681</v>
+        <v>12.3699</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-13</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6268</v>
@@ -12457,10 +12460,10 @@
         <v>369593.0345</v>
       </c>
       <c r="K29" s="1">
-        <v>275323.0224</v>
+        <v>275362.4768</v>
       </c>
       <c r="L29" s="1">
-        <v>12.3745</v>
+        <v>12.3763</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-12</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3636</v>
@@ -12510,10 +12513,10 @@
         <v>395776.8762</v>
       </c>
       <c r="K30" s="1">
-        <v>271815.4777</v>
+        <v>271868.9326</v>
       </c>
       <c r="L30" s="1">
-        <v>12.3497</v>
+        <v>12.3521</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-11</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8711</v>
@@ -12563,10 +12566,10 @@
         <v>373281.815</v>
       </c>
       <c r="K31" s="1">
-        <v>268832.6293</v>
+        <v>268898.0005</v>
       </c>
       <c r="L31" s="1">
-        <v>12.3227</v>
+        <v>12.3257</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1252</v>
@@ -12616,10 +12619,10 @@
         <v>399287.5886</v>
       </c>
       <c r="K32" s="1">
-        <v>314856.5083</v>
+        <v>314921.8794</v>
       </c>
       <c r="L32" s="1">
-        <v>12.5304</v>
+        <v>12.533</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1934</v>
@@ -12669,10 +12672,10 @@
         <v>411002.0501</v>
       </c>
       <c r="K33" s="1">
-        <v>321991.1651</v>
+        <v>322056.5362</v>
       </c>
       <c r="L33" s="1">
-        <v>12.5623</v>
+        <v>12.5649</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-8</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1176</v>
@@ -12722,10 +12725,10 @@
         <v>418953.3562</v>
       </c>
       <c r="K34" s="1">
-        <v>333909.095</v>
+        <v>333974.4662</v>
       </c>
       <c r="L34" s="1">
-        <v>12.6149</v>
+        <v>12.6173</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-7</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3311</v>
@@ -12775,10 +12778,10 @@
         <v>474209.8328</v>
       </c>
       <c r="K35" s="1">
-        <v>349722.7583</v>
+        <v>349788.1295</v>
       </c>
       <c r="L35" s="1">
-        <v>12.6769</v>
+        <v>12.6793</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-6</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3637</v>
@@ -12828,10 +12831,10 @@
         <v>485067.5888</v>
       </c>
       <c r="K36" s="1">
-        <v>330122.9641</v>
+        <v>330266.6742</v>
       </c>
       <c r="L36" s="1">
-        <v>12.5467</v>
+        <v>12.5522</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-5</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6447</v>
@@ -12881,10 +12884,10 @@
         <v>475517.3396</v>
       </c>
       <c r="K37" s="1">
-        <v>343343.7943</v>
+        <v>343487.5044</v>
       </c>
       <c r="L37" s="1">
-        <v>12.6367</v>
+        <v>12.642</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-4</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.486</v>
@@ -12934,10 +12937,10 @@
         <v>534581.7226</v>
       </c>
       <c r="K38" s="1">
-        <v>377142.2273</v>
+        <v>377285.9374</v>
       </c>
       <c r="L38" s="1">
-        <v>12.7959</v>
+        <v>12.8008</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-3</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.1958</v>
@@ -12987,10 +12990,10 @@
         <v>564982.3808</v>
       </c>
       <c r="K39" s="1">
-        <v>366661.9866</v>
+        <v>366847.5717</v>
       </c>
       <c r="L39" s="1">
-        <v>12.7321</v>
+        <v>12.7386</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-2</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.4264</v>
@@ -13040,10 +13043,10 @@
         <v>581526.9921</v>
       </c>
       <c r="K40" s="1">
-        <v>360688.2396</v>
+        <v>360897.6783</v>
       </c>
       <c r="L40" s="1">
-        <v>12.6868</v>
+        <v>12.6942</v>
       </c>
       <c r="M40" s="1">
         <v>0.75</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>17.107</v>
@@ -13093,10 +13096,10 @@
         <v>630328.3277</v>
       </c>
       <c r="K41" s="1">
-        <v>368771.1651</v>
+        <v>368980.6037</v>
       </c>
       <c r="L41" s="1">
-        <v>12.7509</v>
+        <v>12.7581</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.8894</v>
@@ -13146,10 +13149,10 @@
         <v>634109.0079</v>
       </c>
       <c r="K42" s="1">
-        <v>363849.4461</v>
+        <v>364078.5529</v>
       </c>
       <c r="L42" s="1">
-        <v>12.7069</v>
+        <v>12.7149</v>
       </c>
       <c r="M42" s="1">
         <v>1</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.4004</v>
@@ -13199,10 +13202,10 @@
         <v>655210.4767</v>
       </c>
       <c r="K43" s="1">
-        <v>385042.0574</v>
+        <v>385271.1642</v>
       </c>
       <c r="L43" s="1">
-        <v>12.8835</v>
+        <v>12.8912</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.3877</v>
@@ -13252,10 +13255,10 @@
         <v>633056.2748</v>
       </c>
       <c r="K44" s="1">
-        <v>414783.024</v>
+        <v>415012.1308</v>
       </c>
       <c r="L44" s="1">
-        <v>13.0862</v>
+        <v>13.0935</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>14.6367</v>
@@ -13305,10 +13308,10 @@
         <v>616805.8398</v>
       </c>
       <c r="K45" s="1">
-        <v>462195.6441</v>
+        <v>462424.7509</v>
       </c>
       <c r="L45" s="1">
-        <v>13.2925</v>
+        <v>13.2991</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.0061</v>
@@ -13358,10 +13361,10 @@
         <v>565444.4359</v>
       </c>
       <c r="K46" s="1">
-        <v>503762.5202</v>
+        <v>503991.627</v>
       </c>
       <c r="L46" s="1">
-        <v>13.396</v>
+        <v>13.4021</v>
       </c>
       <c r="M46" s="1">
         <v>0.5</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.835</v>
@@ -13411,10 +13414,10 @@
         <v>628053.5063</v>
       </c>
       <c r="K47" s="1">
-        <v>580758.8287</v>
+        <v>580987.9355</v>
       </c>
       <c r="L47" s="1">
-        <v>13.3466</v>
+        <v>13.3519</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>14.4216</v>
@@ -13464,10 +13467,10 @@
         <v>662667.9247</v>
       </c>
       <c r="K48" s="1">
-        <v>560330.8577000001</v>
+        <v>560641.6015</v>
       </c>
       <c r="L48" s="1">
-        <v>13.3285</v>
+        <v>13.3359</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.2404</v>
@@ -13517,10 +13520,10 @@
         <v>623828.5763</v>
       </c>
       <c r="K49" s="1">
-        <v>551485.7095999999</v>
+        <v>551831.7716</v>
       </c>
       <c r="L49" s="1">
-        <v>13.3119</v>
+        <v>13.3203</v>
       </c>
       <c r="M49" s="1">
         <v>0.4</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.382</v>
@@ -13570,10 +13573,10 @@
         <v>608790.1008</v>
       </c>
       <c r="K50" s="1">
-        <v>616547.6085</v>
+        <v>616893.6705</v>
       </c>
       <c r="L50" s="1">
-        <v>13.3072</v>
+        <v>13.3146</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.9583</v>
@@ -13623,10 +13626,10 @@
         <v>597439.6796</v>
       </c>
       <c r="K51" s="1">
-        <v>662804.2341999999</v>
+        <v>663150.2961</v>
       </c>
       <c r="L51" s="1">
-        <v>13.2401</v>
+        <v>13.247</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.2036</v>
@@ -13676,10 +13679,10 @@
         <v>619858.7675</v>
       </c>
       <c r="K52" s="1">
-        <v>672804.2341999999</v>
+        <v>673150.2961</v>
       </c>
       <c r="L52" s="1">
-        <v>13.2195</v>
+        <v>13.2263</v>
       </c>
       <c r="M52" s="1">
         <v>0.4</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.9136</v>
@@ -13729,10 +13732,10 @@
         <v>684784.5178</v>
       </c>
       <c r="K53" s="1">
-        <v>682804.2341999999</v>
+        <v>683150.2961</v>
       </c>
       <c r="L53" s="1">
-        <v>13.2038</v>
+        <v>13.2105</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.4338</v>
@@ -13782,10 +13785,10 @@
         <v>722035.7093</v>
       </c>
       <c r="K54" s="1">
-        <v>694075.8259000001</v>
+        <v>694421.8879</v>
       </c>
       <c r="L54" s="1">
-        <v>13.1994</v>
+        <v>13.206</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.9657</v>
@@ -13835,10 +13838,10 @@
         <v>707840.3338</v>
       </c>
       <c r="K55" s="1">
-        <v>683514.2752</v>
+        <v>683902.5497</v>
       </c>
       <c r="L55" s="1">
-        <v>13.1955</v>
+        <v>13.203</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.3568</v>
@@ -13888,10 +13891,10 @@
         <v>753119.1909</v>
       </c>
       <c r="K56" s="1">
-        <v>724819.3166</v>
+        <v>725207.5912</v>
       </c>
       <c r="L56" s="1">
-        <v>13.1837</v>
+        <v>13.1908</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.2487</v>
@@ -13941,10 +13944,10 @@
         <v>757222.1758</v>
       </c>
       <c r="K57" s="1">
-        <v>720457.888</v>
+        <v>720863.5971</v>
       </c>
       <c r="L57" s="1">
-        <v>13.1825</v>
+        <v>13.1899</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.3991</v>
@@ -13994,10 +13997,10 @@
         <v>775595.7743</v>
       </c>
       <c r="K58" s="1">
-        <v>743733.0729</v>
+        <v>744138.782</v>
       </c>
       <c r="L58" s="1">
-        <v>13.1854</v>
+        <v>13.1926</v>
       </c>
       <c r="M58" s="1">
         <v>0.4</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.5985</v>
@@ -14047,10 +14050,10 @@
         <v>817224.4283</v>
       </c>
       <c r="K59" s="1">
-        <v>752760.6894</v>
+        <v>753166.3985</v>
       </c>
       <c r="L59" s="1">
-        <v>13.1882</v>
+        <v>13.1953</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.6955</v>
@@ -14100,10 +14103,10 @@
         <v>832769.2078</v>
       </c>
       <c r="K60" s="1">
-        <v>759059.9398000001</v>
+        <v>759465.6489</v>
       </c>
       <c r="L60" s="1">
-        <v>13.1917</v>
+        <v>13.1988</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.3398</v>
@@ -14153,10 +14156,10 @@
         <v>821975.344</v>
       </c>
       <c r="K61" s="1">
-        <v>771348.0873</v>
+        <v>771753.7964</v>
       </c>
       <c r="L61" s="1">
-        <v>13.1999</v>
+        <v>13.2068</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.8469</v>
@@ -14206,10 +14209,10 @@
         <v>817421.9424000001</v>
       </c>
       <c r="K62" s="1">
-        <v>810235.3336</v>
+        <v>810641.0427</v>
       </c>
       <c r="L62" s="1">
-        <v>13.2078</v>
+        <v>13.2144</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.3595</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-39</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.0875</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-38</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.1692</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.0872</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-36</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0976</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-35</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.8505</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-34</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.8576</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-33</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5699</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-32</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5994</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-31</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.6663</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.701</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-29</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8109</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-28</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.9322</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-27</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5846</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-26</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.2867</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-25</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.0645</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-24</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8083</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-23</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.5636</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-22</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.1788</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.5668</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.962</v>
@@ -15398,10 +15401,10 @@
         <v>251513.7207</v>
       </c>
       <c r="K22" s="1">
-        <v>194812.0369</v>
+        <v>194850.8894</v>
       </c>
       <c r="L22" s="1">
-        <v>12.2477</v>
+        <v>12.2501</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.2659</v>
@@ -15451,10 +15454,10 @@
         <v>238852.3364</v>
       </c>
       <c r="K23" s="1">
-        <v>217973.9977</v>
+        <v>218012.8502</v>
       </c>
       <c r="L23" s="1">
-        <v>12.412</v>
+        <v>12.4142</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-18</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.4103</v>
@@ -15504,10 +15507,10 @@
         <v>251644.7923</v>
       </c>
       <c r="K24" s="1">
-        <v>251847.6492</v>
+        <v>251886.5017</v>
       </c>
       <c r="L24" s="1">
-        <v>12.3955</v>
+        <v>12.3974</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-17</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.3976</v>
@@ -15557,10 +15560,10 @@
         <v>261336.5775</v>
       </c>
       <c r="K25" s="1">
-        <v>261847.6492</v>
+        <v>261886.5017</v>
       </c>
       <c r="L25" s="1">
-        <v>12.397</v>
+        <v>12.3988</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-16</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.9013</v>
@@ -15610,10 +15613,10 @@
         <v>291824.12</v>
       </c>
       <c r="K26" s="1">
-        <v>271847.6492</v>
+        <v>271886.5017</v>
       </c>
       <c r="L26" s="1">
-        <v>12.3979</v>
+        <v>12.3997</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-15</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.3527</v>
@@ -15663,10 +15666,10 @@
         <v>312269.3256</v>
       </c>
       <c r="K27" s="1">
-        <v>290232.1287</v>
+        <v>290270.9812</v>
       </c>
       <c r="L27" s="1">
-        <v>12.4302</v>
+        <v>12.4318</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-14</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8804</v>
@@ -15716,10 +15719,10 @@
         <v>334706.5954</v>
       </c>
       <c r="K28" s="1">
-        <v>294238.8728</v>
+        <v>294277.7253</v>
       </c>
       <c r="L28" s="1">
-        <v>12.4422</v>
+        <v>12.4438</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-13</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6268</v>
@@ -15769,10 +15772,10 @@
         <v>373079.6931</v>
       </c>
       <c r="K29" s="1">
-        <v>296521.8031</v>
+        <v>296560.6557</v>
       </c>
       <c r="L29" s="1">
-        <v>12.4523</v>
+        <v>12.4539</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-12</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3636</v>
@@ -15822,10 +15825,10 @@
         <v>400448.46</v>
       </c>
       <c r="K30" s="1">
-        <v>293718.2078</v>
+        <v>293768.251</v>
       </c>
       <c r="L30" s="1">
-        <v>12.4344</v>
+        <v>12.4366</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-11</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.8711</v>
@@ -15875,10 +15878,10 @@
         <v>375477.8642</v>
       </c>
       <c r="K31" s="1">
-        <v>291512.8524</v>
+        <v>291571.7058</v>
       </c>
       <c r="L31" s="1">
-        <v>12.4164</v>
+        <v>12.4189</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1252</v>
@@ -15928,10 +15931,10 @@
         <v>402717.8431</v>
       </c>
       <c r="K32" s="1">
-        <v>342085.1949</v>
+        <v>342144.0483</v>
       </c>
       <c r="L32" s="1">
-        <v>12.6153</v>
+        <v>12.6175</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1934</v>
@@ -15981,10 +15984,10 @@
         <v>414568.9175</v>
       </c>
       <c r="K33" s="1">
-        <v>350874.2969</v>
+        <v>350933.1504</v>
       </c>
       <c r="L33" s="1">
-        <v>12.6497</v>
+        <v>12.6519</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-8</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1176</v>
@@ -16034,10 +16037,10 @@
         <v>422341.2889</v>
       </c>
       <c r="K34" s="1">
-        <v>364909.4557</v>
+        <v>364968.3091</v>
       </c>
       <c r="L34" s="1">
-        <v>12.7038</v>
+        <v>12.7058</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-7</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3311</v>
@@ -16087,10 +16090,10 @@
         <v>481550.1804</v>
       </c>
       <c r="K35" s="1">
-        <v>383257.5569</v>
+        <v>383316.4103</v>
       </c>
       <c r="L35" s="1">
-        <v>12.7661</v>
+        <v>12.768</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-6</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3637</v>
@@ -16140,10 +16143,10 @@
         <v>492486.2467</v>
       </c>
       <c r="K36" s="1">
-        <v>363165.9041</v>
+        <v>363305.0624</v>
       </c>
       <c r="L36" s="1">
-        <v>12.6478</v>
+        <v>12.6527</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-5</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6447</v>
@@ -16193,10 +16196,10 @@
         <v>481085.8986</v>
       </c>
       <c r="K37" s="1">
-        <v>378882.5887</v>
+        <v>379021.747</v>
       </c>
       <c r="L37" s="1">
-        <v>12.7421</v>
+        <v>12.7468</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-4</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.486</v>
@@ -16246,10 +16249,10 @@
         <v>544852.2606</v>
       </c>
       <c r="K38" s="1">
-        <v>417212.0299</v>
+        <v>417351.1882</v>
       </c>
       <c r="L38" s="1">
-        <v>12.8981</v>
+        <v>12.9024</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-3</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.1958</v>
@@ -16299,10 +16302,10 @@
         <v>577305.2215</v>
       </c>
       <c r="K39" s="1">
-        <v>407104.7666</v>
+        <v>407284.3096</v>
       </c>
       <c r="L39" s="1">
-        <v>12.8443</v>
+        <v>12.85</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>-2</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.4264</v>
@@ -16352,10 +16355,10 @@
         <v>594528.7745000001</v>
       </c>
       <c r="K40" s="1">
-        <v>401979.105</v>
+        <v>402179.115</v>
       </c>
       <c r="L40" s="1">
-        <v>12.8103</v>
+        <v>12.8166</v>
       </c>
       <c r="M40" s="1">
         <v>0.75</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>17.107</v>
@@ -16405,10 +16408,10 @@
         <v>647411.4647</v>
       </c>
       <c r="K41" s="1">
-        <v>412405.1521</v>
+        <v>412605.1622</v>
       </c>
       <c r="L41" s="1">
-        <v>12.8825</v>
+        <v>12.8887</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>16.8894</v>
@@ -16458,10 +16461,10 @@
         <v>650507.5084</v>
       </c>
       <c r="K42" s="1">
-        <v>408518.5548</v>
+        <v>408734.0964</v>
       </c>
       <c r="L42" s="1">
-        <v>12.8521</v>
+        <v>12.8589</v>
       </c>
       <c r="M42" s="1">
         <v>1</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>16.4004</v>
@@ -16511,10 +16514,10 @@
         <v>672777.8974</v>
       </c>
       <c r="K43" s="1">
-        <v>433663.1356</v>
+        <v>433878.6773</v>
       </c>
       <c r="L43" s="1">
-        <v>13.0339</v>
+        <v>13.0404</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>15.3877</v>
@@ -16564,10 +16567,10 @@
         <v>646871.251</v>
       </c>
       <c r="K44" s="1">
-        <v>468451.229</v>
+        <v>468666.7706</v>
       </c>
       <c r="L44" s="1">
-        <v>13.2372</v>
+        <v>13.2433</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>14.6367</v>
@@ -16617,10 +16620,10 @@
         <v>627471.0828</v>
       </c>
       <c r="K45" s="1">
-        <v>523125.6999</v>
+        <v>523341.2416</v>
       </c>
       <c r="L45" s="1">
-        <v>13.4359</v>
+        <v>13.4414</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.0061</v>
@@ -16670,10 +16673,10 @@
         <v>568555.0149</v>
       </c>
       <c r="K46" s="1">
-        <v>571469.3946999999</v>
+        <v>571684.9364</v>
       </c>
       <c r="L46" s="1">
-        <v>13.5319</v>
+        <v>13.537</v>
       </c>
       <c r="M46" s="1">
         <v>0.5</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.835</v>
@@ -16723,10 +16726,10 @@
         <v>634300.1834</v>
       </c>
       <c r="K47" s="1">
-        <v>601858.6342</v>
+        <v>602074.1759</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5058</v>
+        <v>13.5106</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>14.4216</v>
@@ -16776,10 +16779,10 @@
         <v>671500.9749</v>
       </c>
       <c r="K48" s="1">
-        <v>630862.6942</v>
+        <v>631078.2359</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5218</v>
+        <v>13.5264</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.2404</v>
@@ -16829,10 +16832,10 @@
         <v>626153.7398</v>
       </c>
       <c r="K49" s="1">
-        <v>634897.2308</v>
+        <v>635112.7725</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5273</v>
+        <v>13.5319</v>
       </c>
       <c r="M49" s="1">
         <v>0.4</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.382</v>
@@ -16882,10 +16885,10 @@
         <v>611746.6171</v>
       </c>
       <c r="K50" s="1">
-        <v>650862.6942</v>
+        <v>651078.2359</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5208</v>
+        <v>13.5253</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.9583</v>
@@ -16935,10 +16938,10 @@
         <v>600369.7892999999</v>
       </c>
       <c r="K51" s="1">
-        <v>677759.1274999999</v>
+        <v>677974.6691000001</v>
       </c>
       <c r="L51" s="1">
-        <v>13.4728</v>
+        <v>13.4771</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.2036</v>
@@ -16988,10 +16991,10 @@
         <v>622848.98</v>
       </c>
       <c r="K52" s="1">
-        <v>687759.1274999999</v>
+        <v>687974.6691000001</v>
       </c>
       <c r="L52" s="1">
-        <v>13.4485</v>
+        <v>13.4527</v>
       </c>
       <c r="M52" s="1">
         <v>0.4</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.9136</v>
@@ -17041,10 +17044,10 @@
         <v>688037.0906999999</v>
       </c>
       <c r="K53" s="1">
-        <v>697759.1274999999</v>
+        <v>697974.6691000001</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4292</v>
+        <v>13.4334</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.4338</v>
@@ -17094,10 +17097,10 @@
         <v>726034.8229</v>
       </c>
       <c r="K54" s="1">
-        <v>726169.6662</v>
+        <v>726385.2078</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4094</v>
+        <v>13.4134</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.9657</v>
@@ -17147,10 +17150,10 @@
         <v>710352.5961</v>
       </c>
       <c r="K55" s="1">
-        <v>736169.6662</v>
+        <v>736385.2078</v>
       </c>
       <c r="L55" s="1">
-        <v>13.4101</v>
+        <v>13.414</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.3568</v>
@@ -17200,10 +17203,10 @@
         <v>756861.3752</v>
       </c>
       <c r="K56" s="1">
-        <v>746169.6662</v>
+        <v>746385.2078</v>
       </c>
       <c r="L56" s="1">
-        <v>13.4043</v>
+        <v>13.4082</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.2487</v>
@@ -17253,10 +17256,10 @@
         <v>760555.6228</v>
       </c>
       <c r="K57" s="1">
-        <v>770991.7809</v>
+        <v>771207.3226</v>
       </c>
       <c r="L57" s="1">
-        <v>13.4036</v>
+        <v>13.4074</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.3991</v>
@@ -17306,10 +17309,10 @@
         <v>779262.6853</v>
       </c>
       <c r="K58" s="1">
-        <v>780991.7809</v>
+        <v>781207.3226</v>
       </c>
       <c r="L58" s="1">
-        <v>13.402</v>
+        <v>13.4057</v>
       </c>
       <c r="M58" s="1">
         <v>0.4</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.5985</v>
@@ -17359,10 +17362,10 @@
         <v>821946.37</v>
       </c>
       <c r="K59" s="1">
-        <v>790991.7809</v>
+        <v>791207.3226</v>
       </c>
       <c r="L59" s="1">
-        <v>13.4023</v>
+        <v>13.4059</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.6955</v>
@@ -17412,10 +17415,10 @@
         <v>837755.8296000001</v>
       </c>
       <c r="K60" s="1">
-        <v>821970.563</v>
+        <v>822186.1046</v>
       </c>
       <c r="L60" s="1">
-        <v>13.4106</v>
+        <v>13.4141</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.3398</v>
@@ -17465,10 +17468,10 @@
         <v>825698.2682</v>
       </c>
       <c r="K61" s="1">
-        <v>831970.563</v>
+        <v>832186.1046</v>
       </c>
       <c r="L61" s="1">
-        <v>13.4142</v>
+        <v>13.4177</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.8469</v>
@@ -17518,10 +17521,10 @@
         <v>821527.7398</v>
       </c>
       <c r="K62" s="1">
-        <v>841970.563</v>
+        <v>842186.1046</v>
       </c>
       <c r="L62" s="1">
-        <v>13.4137</v>
+        <v>13.4171</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.4884</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0122</v>
+        <v>13.0235</v>
       </c>
       <c r="E3" s="1">
-        <v>13.0954</v>
+        <v>13.105</v>
       </c>
       <c r="F3" s="1">
-        <v>13.2078</v>
+        <v>13.2144</v>
       </c>
       <c r="G3" s="1">
-        <v>13.4137</v>
+        <v>13.4171</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>258931.9063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9699</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.3478</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1722</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0084</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9755</v>
       </c>
     </row>
   </sheetData>
